--- a/SRS documents/InsuranceUserStories.xlsx
+++ b/SRS documents/InsuranceUserStories.xlsx
@@ -1184,7 +1184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
-        <v>44209</v>
+        <v>44498</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>50</v>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>50</v>
